--- a/target/test-classes/data/TestData_template.xlsx
+++ b/target/test-classes/data/TestData_template.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="BrandItemPageData" sheetId="52" r:id="rId2"/>
     <sheet name="BrandPageData" sheetId="53" r:id="rId3"/>
+    <sheet name="BrandReviewPageData" sheetId="54" r:id="rId4"/>
+    <sheet name="BrandItemReviewPageData" sheetId="55" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -475,7 +477,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -543,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -598,4 +600,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>